--- a/Tests/_Tests.xlsx
+++ b/Tests/_Tests.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8E0EBE-485C-478F-B60A-B47CD77F7485}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB487D9-46E7-4F34-9F48-9CC8B50E768B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
   <si>
     <t>WorkflowFile</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Success</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -48,9 +45,6 @@
   </si>
   <si>
     <t>Framework\CloseAllApplications.xaml</t>
-  </si>
-  <si>
-    <t>Test_Framework\Test_ProcessTransaction.xaml</t>
   </si>
   <si>
     <t>Framework\InitAllSettings.xaml</t>
@@ -121,7 +115,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -399,16 +393,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="41.9140625" customWidth="1"/>
+    <col min="1" max="2" width="41.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="26.5" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -416,162 +412,74 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B27" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B16" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Success,BRE,AppEx"</formula1>
     </dataValidation>
   </dataValidations>
@@ -582,21 +490,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="46.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.4140625" customWidth="1"/>
-    <col min="4" max="4" width="135.58203125" customWidth="1"/>
+    <col min="1" max="1" width="46.375" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="135.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -604,226 +512,17 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B28" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B17" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Success,BRE,AppEx"</formula1>
     </dataValidation>
   </dataValidations>
